--- a/AS_Parse_Table.xlsx
+++ b/AS_Parse_Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amansahu/Documents/Spring_2025/untitled folder/Syntax Checker/Syntax-Checker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8328A87B-DD50-3D4E-B063-18C109629ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9086F883-0B6B-544E-9CE2-76333A1726C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="920" windowWidth="29920" windowHeight="18580" activeTab="1" xr2:uid="{87D22565-061A-514F-A982-CA464F4BE6B2}"/>
+    <workbookView xWindow="140" yWindow="900" windowWidth="29920" windowHeight="18580" activeTab="1" xr2:uid="{87D22565-061A-514F-A982-CA464F4BE6B2}"/>
   </bookViews>
   <sheets>
     <sheet name="First &amp; Follow" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="147">
   <si>
     <t>NON-TERMINAL</t>
   </si>
@@ -475,13 +475,16 @@
   </si>
   <si>
     <t>{COMMA, EXPROP, RBRACKET, RELOP, RPAREN, SEMI, TERMOP}</t>
+  </si>
+  <si>
+    <t>Made By Aman Sahu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -509,6 +512,13 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -574,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -585,6 +595,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,7 +1041,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1411,11 +1424,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75C6A32-3606-7641-B169-90CC4B689BFA}">
-  <dimension ref="A1:AA33"/>
+  <dimension ref="A1:AF33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="110" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Z1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,7 +1459,7 @@
     <col min="27" max="27" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1528,8 +1541,14 @@
       <c r="AA1" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC1" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1542,8 +1561,12 @@
       <c r="AA2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>27</v>
       </c>
@@ -1557,7 +1580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1571,7 +1594,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1582,7 +1605,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1596,7 +1619,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1607,7 +1630,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -1618,7 +1641,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1629,7 +1652,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1640,7 +1663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1651,7 +1674,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1662,7 +1685,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1694,7 +1717,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1726,7 +1749,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1737,7 +1760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2059,6 +2082,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="AC1:AF2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
